--- a/VEE_Finance_5.3_CF_Projections.xlsx
+++ b/VEE_Finance_5.3_CF_Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A82DD7E-27CF-4A49-8A53-7DFFF401EC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DA7AB8-FC2C-4AD4-A645-EF742EA80483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8DE7A01D-40B8-4BAB-9790-8CDC864FC297}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8DE7A01D-40B8-4BAB-9790-8CDC864FC297}"/>
   </bookViews>
   <sheets>
     <sheet name="Expansion Project" sheetId="1" r:id="rId1"/>
@@ -270,6 +270,40 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>carlc</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{B29FF246-9521-4C06-992F-E1D7273C8CC5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>carlc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+"Salvage Value" is end of life market value. As used in this problem, "salvage value" is being used for end of life book value.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
@@ -388,7 +422,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,11 +467,24 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="15">
@@ -703,7 +750,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -734,9 +781,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -747,7 +791,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyAlignment="1">
@@ -919,6 +963,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1703,7 +1753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49E9265-8E8F-4357-81FE-06DB2419F748}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2270,10 +2320,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CFEA2D-6633-4271-B81D-687225DDDC2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CFEA2D-6633-4271-B81D-687225DDDC2A}">
   <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2295,98 +2345,98 @@
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="I1" s="26" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="I1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="O1" s="27" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="O1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="38" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="19"/>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="38" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="19"/>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="38" t="s">
         <v>31</v>
       </c>
       <c r="T2" s="19"/>
-      <c r="U2" s="37" t="s">
+      <c r="U2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="V2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="W2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="38" t="s">
+      <c r="X2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="39" t="s">
+      <c r="Y2" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2394,339 +2444,339 @@
       <c r="A3" s="19">
         <v>-7</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41">
+      <c r="B3" s="28"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40">
         <v>20000</v>
       </c>
-      <c r="F3" s="41">
-        <v>0</v>
-      </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="75"/>
+      <c r="F3" s="40">
+        <v>0</v>
+      </c>
+      <c r="G3" s="41"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="74"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>-6</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41">
+      <c r="B4" s="28"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40">
         <f>E3-F4</f>
         <v>19000</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="40">
         <v>1000</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="75"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="74"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>-5</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41">
+      <c r="B5" s="28"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40">
         <f>E4-F5</f>
         <v>18000</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="40">
         <v>1000</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="75"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="74"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>-4</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41">
+      <c r="B6" s="28"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40">
         <f>E5-F6</f>
         <v>17000</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="40">
         <v>1000</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="75"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="74"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>-3</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41">
+      <c r="B7" s="28"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40">
         <f>E6-F7</f>
         <v>16000</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="40">
         <v>1000</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="75"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="74"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>-2</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41">
+      <c r="B8" s="28"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40">
         <f>E7-F8</f>
         <v>15000</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="40">
         <v>1000</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="75"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="74"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>-1</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41">
+      <c r="B9" s="28"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40">
         <f>E8-F9</f>
         <v>14000</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="40">
         <v>1000</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="75"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="74"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
-        <v>0</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33">
+      <c r="A10" s="20">
+        <v>0</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32">
         <f>E9-F10</f>
         <v>13000</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="32">
         <v>1000</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="43">
         <v>11000</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34">
+      <c r="H10" s="31"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33">
         <v>25000</v>
       </c>
-      <c r="L10" s="34">
-        <v>0</v>
-      </c>
-      <c r="M10" s="55"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="77"/>
-      <c r="AA10" s="20" t="s">
+      <c r="L10" s="33">
+        <v>0</v>
+      </c>
+      <c r="M10" s="54"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="76"/>
+      <c r="AA10" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="AB10" s="20"/>
+      <c r="AB10" s="87"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>1</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46">
+      <c r="B11" s="28"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45">
         <f>E10-F11</f>
         <v>12000</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="45">
         <v>1000</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57">
+      <c r="G11" s="46"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56">
         <f>K10-L11</f>
         <v>22500</v>
       </c>
-      <c r="L11" s="57">
+      <c r="L11" s="56">
         <v>2500</v>
       </c>
-      <c r="M11" s="58"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="68">
+      <c r="M11" s="57"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="67">
         <v>-3000</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="67">
         <f t="shared" ref="Q11:Q20" si="0">K11-E11</f>
         <v>10500</v>
       </c>
-      <c r="R11" s="68">
+      <c r="R11" s="67">
         <f t="shared" ref="R11:R20" si="1">L11-F11</f>
         <v>1500</v>
       </c>
-      <c r="S11" s="69"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="82">
+      <c r="S11" s="68"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="81">
         <f>(O11-P11-R11)*(1-TaxR)+R11</f>
         <v>2550</v>
       </c>
-      <c r="V11" s="78">
+      <c r="V11" s="77">
         <f>U11/(1+CostCapR)^A11</f>
         <v>2276.7857142857142</v>
       </c>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="79"/>
-      <c r="AA11" s="23" t="s">
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="78"/>
+      <c r="AA11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="AB11" s="23">
+      <c r="AB11" s="84">
         <v>25000</v>
       </c>
     </row>
@@ -2734,58 +2784,58 @@
       <c r="A12" s="19">
         <v>2</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46">
+      <c r="B12" s="28"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45">
         <f>E11-F12</f>
         <v>11000</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="45">
         <v>1000</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57">
+      <c r="G12" s="46"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56">
         <f t="shared" ref="K12:K20" si="2">K11-L12</f>
         <v>20000</v>
       </c>
-      <c r="L12" s="57">
+      <c r="L12" s="56">
         <v>2500</v>
       </c>
-      <c r="M12" s="58"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="68">
+      <c r="M12" s="57"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="67">
         <v>-3000</v>
       </c>
-      <c r="Q12" s="68">
+      <c r="Q12" s="67">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="R12" s="68">
+      <c r="R12" s="67">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S12" s="69"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="82">
+      <c r="S12" s="68"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="81">
         <f>(O12-P12-R12)*(1-TaxR)+R12</f>
         <v>2550</v>
       </c>
-      <c r="V12" s="78">
+      <c r="V12" s="77">
         <f>U12/(1+CostCapR)^A12</f>
         <v>2032.8443877551017</v>
       </c>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="79"/>
-      <c r="AA12" s="23" t="s">
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="78"/>
+      <c r="AA12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AB12" s="23">
+      <c r="AB12" s="84">
         <v>5000</v>
       </c>
     </row>
@@ -2793,58 +2843,58 @@
       <c r="A13" s="19">
         <v>3</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46">
+      <c r="B13" s="28"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45">
         <f>E12-F13</f>
         <v>10000</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="45">
         <v>1000</v>
       </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57">
+      <c r="G13" s="46"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56">
         <f t="shared" si="2"/>
         <v>17500</v>
       </c>
-      <c r="L13" s="57">
+      <c r="L13" s="56">
         <v>2500</v>
       </c>
-      <c r="M13" s="58"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="68">
+      <c r="M13" s="57"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="67">
         <v>-3000</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="67">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="R13" s="68">
+      <c r="R13" s="67">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S13" s="69"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="82">
+      <c r="S13" s="68"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="81">
         <f>(O13-P13-R13)*(1-TaxR)+R13</f>
         <v>2550</v>
       </c>
-      <c r="V13" s="78">
+      <c r="V13" s="77">
         <f>U13/(1+CostCapR)^A13</f>
         <v>1815.0396319241977</v>
       </c>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="79"/>
-      <c r="AA13" s="24" t="s">
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="78"/>
+      <c r="AA13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AB13" s="24">
+      <c r="AB13" s="85">
         <f>G10-TaxR*(G10-E10)</f>
         <v>11600</v>
       </c>
@@ -2853,58 +2903,58 @@
       <c r="A14" s="19">
         <v>4</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46">
+      <c r="B14" s="28"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45">
         <f>E13-F14</f>
         <v>9000</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="45">
         <v>1000</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57">
+      <c r="G14" s="46"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56">
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="L14" s="57">
+      <c r="L14" s="56">
         <v>2500</v>
       </c>
-      <c r="M14" s="58"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="68">
+      <c r="M14" s="57"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="67">
         <v>-3000</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="67">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="R14" s="68">
+      <c r="R14" s="67">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S14" s="69"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="82">
+      <c r="S14" s="68"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="81">
         <f>(O14-P14-R14)*(1-TaxR)+R14</f>
         <v>2550</v>
       </c>
-      <c r="V14" s="78">
+      <c r="V14" s="77">
         <f>U14/(1+CostCapR)^A14</f>
         <v>1620.5710999323194</v>
       </c>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="79"/>
-      <c r="AA14" s="22" t="s">
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="78"/>
+      <c r="AA14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AB14" s="22">
+      <c r="AB14" s="86">
         <f>FCInv+NWCInv-AB13</f>
         <v>18400</v>
       </c>
@@ -2913,111 +2963,111 @@
       <c r="A15" s="19">
         <v>5</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46">
+      <c r="B15" s="28"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45">
         <f>E14-F15</f>
         <v>8000</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="45">
         <v>1000</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57">
+      <c r="G15" s="46"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56">
         <f t="shared" si="2"/>
         <v>12500</v>
       </c>
-      <c r="L15" s="57">
+      <c r="L15" s="56">
         <v>2500</v>
       </c>
-      <c r="M15" s="58"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="68">
+      <c r="M15" s="57"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="67">
         <v>-3000</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="67">
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="R15" s="68">
+      <c r="R15" s="67">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S15" s="69"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="82">
+      <c r="S15" s="68"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="81">
         <f>(O15-P15-R15)*(1-TaxR)+R15</f>
         <v>2550</v>
       </c>
-      <c r="V15" s="78">
+      <c r="V15" s="77">
         <f>U15/(1+CostCapR)^A15</f>
         <v>1446.938482082428</v>
       </c>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="79"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="78"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>6</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46">
+      <c r="B16" s="28"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45">
         <f>E15-F16</f>
         <v>7000</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="45">
         <v>1000</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57">
+      <c r="G16" s="46"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="L16" s="57">
+      <c r="L16" s="56">
         <v>2500</v>
       </c>
-      <c r="M16" s="58"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="68">
+      <c r="M16" s="57"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="67">
         <v>-3000</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="67">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="R16" s="68">
+      <c r="R16" s="67">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S16" s="69"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="82">
+      <c r="S16" s="68"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="81">
         <f>(O16-P16-R16)*(1-TaxR)+R16</f>
         <v>2550</v>
       </c>
-      <c r="V16" s="78">
+      <c r="V16" s="77">
         <f>U16/(1+CostCapR)^A16</f>
         <v>1291.9093590021678</v>
       </c>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="79"/>
-      <c r="AA16" s="25" t="s">
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="78"/>
+      <c r="AA16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AB16" s="25">
+      <c r="AB16" s="24">
         <v>0.12</v>
       </c>
     </row>
@@ -3025,58 +3075,58 @@
       <c r="A17" s="19">
         <v>7</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46">
+      <c r="B17" s="28"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45">
         <f>E16-F17</f>
         <v>6000</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="45">
         <v>1000</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57">
+      <c r="G17" s="46"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56">
         <f t="shared" si="2"/>
         <v>7500</v>
       </c>
-      <c r="L17" s="57">
+      <c r="L17" s="56">
         <v>2500</v>
       </c>
-      <c r="M17" s="58"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="68">
+      <c r="M17" s="57"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="67">
         <v>-3000</v>
       </c>
-      <c r="Q17" s="68">
+      <c r="Q17" s="67">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="R17" s="68">
+      <c r="R17" s="67">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S17" s="69"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="82">
+      <c r="S17" s="68"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="81">
         <f>(O17-P17-R17)*(1-TaxR)+R17</f>
         <v>2550</v>
       </c>
-      <c r="V17" s="78">
+      <c r="V17" s="77">
         <f>U17/(1+CostCapR)^A17</f>
         <v>1153.4904991090782</v>
       </c>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="79"/>
-      <c r="AA17" s="25" t="s">
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="78"/>
+      <c r="AA17" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AB17" s="25">
+      <c r="AB17" s="24">
         <v>0.3</v>
       </c>
     </row>
@@ -3084,173 +3134,173 @@
       <c r="A18" s="19">
         <v>8</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46">
+      <c r="B18" s="28"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45">
         <f>E17-F18</f>
         <v>5000</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="45">
         <v>1000</v>
       </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57">
+      <c r="G18" s="46"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="L18" s="57">
+      <c r="L18" s="56">
         <v>2500</v>
       </c>
-      <c r="M18" s="58"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="68">
+      <c r="M18" s="57"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="67">
         <v>-3000</v>
       </c>
-      <c r="Q18" s="68">
+      <c r="Q18" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R18" s="68">
+      <c r="R18" s="67">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S18" s="69"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="82">
+      <c r="S18" s="68"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="81">
         <f>(O18-P18-R18)*(1-TaxR)+R18</f>
         <v>2550</v>
       </c>
-      <c r="V18" s="78">
+      <c r="V18" s="77">
         <f>U18/(1+CostCapR)^A18</f>
         <v>1029.9022313473913</v>
       </c>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="79"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="78"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>9</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46">
+      <c r="B19" s="28"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45">
         <f>E18-F19</f>
         <v>4000</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="45">
         <v>1000</v>
       </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57">
+      <c r="G19" s="46"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="L19" s="57">
+      <c r="L19" s="56">
         <v>2500</v>
       </c>
-      <c r="M19" s="58"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="68">
+      <c r="M19" s="57"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="67">
         <v>-3000</v>
       </c>
-      <c r="Q19" s="68">
+      <c r="Q19" s="67">
         <f t="shared" si="0"/>
         <v>-1500</v>
       </c>
-      <c r="R19" s="68">
+      <c r="R19" s="67">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S19" s="69"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="82">
+      <c r="S19" s="68"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="81">
         <f>(O19-P19-R19)*(1-TaxR)+R19</f>
         <v>2550</v>
       </c>
-      <c r="V19" s="78">
+      <c r="V19" s="77">
         <f>U19/(1+CostCapR)^A19</f>
         <v>919.55556370302793</v>
       </c>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="79"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="78"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>10</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49">
+      <c r="B20" s="28"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48">
         <f>E19-F20</f>
         <v>3000</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="48">
         <v>1000</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="49">
         <v>1200</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60">
+      <c r="H20" s="30"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L20" s="60">
+      <c r="L20" s="59">
         <v>2500</v>
       </c>
-      <c r="M20" s="61">
+      <c r="M20" s="60">
         <v>1000</v>
       </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="71">
+      <c r="N20" s="30"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="70">
         <v>-3000</v>
       </c>
-      <c r="Q20" s="71">
+      <c r="Q20" s="70">
         <f t="shared" si="0"/>
         <v>-3000</v>
       </c>
-      <c r="R20" s="71">
+      <c r="R20" s="70">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S20" s="72">
+      <c r="S20" s="71">
         <f>M20-G20</f>
         <v>-200</v>
       </c>
-      <c r="T20" s="31"/>
-      <c r="U20" s="83">
+      <c r="T20" s="30"/>
+      <c r="U20" s="82">
         <f>(O20-P20-R20)*(1-TaxR)+R20</f>
         <v>2550</v>
       </c>
-      <c r="V20" s="80">
+      <c r="V20" s="79">
         <f>U20/(1+CostCapR)^A20</f>
         <v>821.03175330627482</v>
       </c>
-      <c r="W20" s="84">
+      <c r="W20" s="83">
         <f>AB12+S20-Tax*(S20-Q20)</f>
         <v>3960</v>
       </c>
-      <c r="X20" s="80">
+      <c r="X20" s="79">
         <f>W20/(1+CostCap)^A20</f>
         <v>1275.0140168991561</v>
       </c>
-      <c r="Y20" s="81">
+      <c r="Y20" s="80">
         <f>-OutlayR+SUM(V11:V20)+W20</f>
         <v>-31.931277552299434</v>
       </c>
@@ -3265,5 +3315,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/VEE_Finance_5.3_CF_Projections.xlsx
+++ b/VEE_Finance_5.3_CF_Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DA7AB8-FC2C-4AD4-A645-EF742EA80483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8114D8B-F60B-41DB-8060-F0CE1B315CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8DE7A01D-40B8-4BAB-9790-8CDC864FC297}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8DE7A01D-40B8-4BAB-9790-8CDC864FC297}"/>
   </bookViews>
   <sheets>
     <sheet name="Expansion Project" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -723,6 +723,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -750,17 +763,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="4" applyBorder="1"/>
@@ -956,10 +966,10 @@
     <xf numFmtId="2" fontId="3" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -969,6 +979,24 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1753,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49E9265-8E8F-4357-81FE-06DB2419F748}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1774,476 +1802,476 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17">
-        <v>0</v>
-      </c>
-      <c r="C2" s="17">
-        <v>0</v>
-      </c>
-      <c r="D2" s="17">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14">
         <v>25000</v>
       </c>
-      <c r="E2" s="17">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17">
-        <v>0</v>
-      </c>
-      <c r="G2" s="17">
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
         <f t="shared" ref="G2:G12" si="0">(B2-C2-E2)*(1-Tax)+E2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="14">
         <f t="shared" ref="H2:H12" si="1">G2/(1+CostCap)^A2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="17">
-        <v>0</v>
-      </c>
-      <c r="J2" s="17">
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
         <f t="shared" ref="J2:J12" si="2">I2/(1+CostCap)^A2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="15">
         <f>-Outlay+SUM(H$2:H2)+SUM(J$2:J2)</f>
         <v>-30000</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="14">
         <v>3429</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="14">
         <v>1500</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="14">
         <f>MAX(D2-E3,0)</f>
         <v>20000</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="14">
         <v>5000</v>
       </c>
-      <c r="F3" s="17">
-        <v>0</v>
-      </c>
-      <c r="G3" s="17">
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="90">
         <f t="shared" si="0"/>
         <v>2850.3</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="14">
         <f t="shared" si="1"/>
         <v>2544.9107142857142</v>
       </c>
-      <c r="I3" s="17">
-        <v>0</v>
-      </c>
-      <c r="J3" s="17">
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="15">
         <f>-Outlay+SUM(H$2:H3)+SUM(J$2:J3)</f>
         <v>-27455.089285714286</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="14">
         <v>3429</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="14">
         <v>1500</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="14">
         <f t="shared" ref="D4:D12" si="3">MAX(D3-E4,0)</f>
         <v>15000</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="14">
         <v>5000</v>
       </c>
-      <c r="F4" s="17">
-        <v>0</v>
-      </c>
-      <c r="G4" s="17">
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="91">
         <f t="shared" si="0"/>
         <v>2850.3</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="14">
         <f t="shared" si="1"/>
         <v>2272.2417091836733</v>
       </c>
-      <c r="I4" s="17">
-        <v>0</v>
-      </c>
-      <c r="J4" s="17">
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="15">
         <f>-Outlay+SUM(H$2:H4)+SUM(J$2:J4)</f>
         <v>-25182.847576530614</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="14">
         <v>3429</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="14">
         <v>1500</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="14">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="14">
         <v>5000</v>
       </c>
-      <c r="F5" s="17">
-        <v>0</v>
-      </c>
-      <c r="G5" s="17">
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="91">
         <f t="shared" si="0"/>
         <v>2850.3</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="14">
         <f t="shared" si="1"/>
         <v>2028.7872403425652</v>
       </c>
-      <c r="I5" s="17">
-        <v>0</v>
-      </c>
-      <c r="J5" s="17">
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="15">
         <f>-Outlay+SUM(H$2:H5)+SUM(J$2:J5)</f>
         <v>-23154.060336188046</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="14">
         <v>3429</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="14">
         <v>1500</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="14">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="14">
         <v>5000</v>
       </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="91">
         <f t="shared" si="0"/>
         <v>2850.3</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="14">
         <f t="shared" si="1"/>
         <v>1811.4171788772903</v>
       </c>
-      <c r="I6" s="17">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17">
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="15">
         <f>-Outlay+SUM(H$2:H6)+SUM(J$2:J6)</f>
         <v>-21342.643157310755</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="14">
         <v>3429</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="14">
         <v>1500</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="14">
         <v>5000</v>
       </c>
-      <c r="F7" s="17">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17">
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="92">
         <f t="shared" si="0"/>
         <v>2850.3</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="14">
         <f t="shared" si="1"/>
         <v>1617.3367668547235</v>
       </c>
-      <c r="I7" s="17">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17">
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="15">
         <f>-Outlay+SUM(H$2:H7)+SUM(J$2:J7)</f>
         <v>-19725.306390456033</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="14">
         <v>3429</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <v>1500</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17">
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="90">
         <f t="shared" si="0"/>
         <v>1350.3</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="14">
         <f t="shared" si="1"/>
         <v>684.10400292573604</v>
       </c>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17">
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="15">
         <f>-Outlay+SUM(H$2:H8)+SUM(J$2:J8)</f>
         <v>-19041.202387530298</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="14">
         <v>3429</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="14">
         <v>1500</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E9" s="17">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0</v>
-      </c>
-      <c r="G9" s="17">
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="91">
         <f t="shared" si="0"/>
         <v>1350.3</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="14">
         <f t="shared" si="1"/>
         <v>610.80714546940715</v>
       </c>
-      <c r="I9" s="17">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17">
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="15">
         <f>-Outlay+SUM(H$2:H9)+SUM(J$2:J9)</f>
         <v>-18430.395242060891</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="14">
         <v>3429</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="14">
         <v>1500</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E10" s="17">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17">
-        <v>0</v>
-      </c>
-      <c r="G10" s="17">
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="91">
         <f t="shared" si="0"/>
         <v>1350.3</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="14">
         <f t="shared" si="1"/>
         <v>545.36352274054207</v>
       </c>
-      <c r="I10" s="17">
-        <v>0</v>
-      </c>
-      <c r="J10" s="17">
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="15">
         <f>-Outlay+SUM(H$2:H10)+SUM(J$2:J10)</f>
         <v>-17885.031719320348</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="14">
         <v>3429</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="14">
         <v>1500</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17">
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="91">
         <f t="shared" si="0"/>
         <v>1350.3</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="14">
         <f t="shared" si="1"/>
         <v>486.93171673262685</v>
       </c>
-      <c r="I11" s="17">
-        <v>0</v>
-      </c>
-      <c r="J11" s="17">
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="15">
         <f>-Outlay+SUM(H$2:H11)+SUM(J$2:J11)</f>
         <v>-17398.100002587722</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="14">
         <v>3429</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="14">
         <v>1500</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E12" s="17">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
         <v>1000</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="92">
         <f t="shared" si="0"/>
         <v>1350.3</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="14">
         <f t="shared" si="1"/>
         <v>434.76046136841683</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="88">
         <f>NWCInv+F12-Tax*(F12-D12)</f>
         <v>5700</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="14">
         <f t="shared" si="2"/>
         <v>1835.2474485669673</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="89">
         <f>-Outlay+SUM(H$2:H12)+SUM(J$2:J12)</f>
         <v>-15128.092092652339</v>
       </c>
@@ -2267,23 +2295,23 @@
       <c r="J14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="85">
         <v>25000</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="86">
         <v>5000</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="87">
         <f>FCInv+NWCInv</f>
         <v>30000</v>
       </c>
@@ -2293,18 +2321,18 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="8">
         <v>0.12</v>
       </c>
     </row>
     <row r="19" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="10">
         <v>0.3</v>
       </c>
     </row>
@@ -2323,7 +2351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CFEA2D-6633-4271-B81D-687225DDDC2A}">
   <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2349,958 +2377,958 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="I1" s="25" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="I1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="O1" s="26" t="s">
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="O1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="36" t="s">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="36" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="36" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="36" t="s">
+      <c r="T2" s="16"/>
+      <c r="U2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="37" t="s">
+      <c r="X2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="38" t="s">
+      <c r="Y2" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="16">
         <v>-7</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40">
+      <c r="B3" s="25"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37">
         <v>20000</v>
       </c>
-      <c r="F3" s="40">
-        <v>0</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="74"/>
+      <c r="F3" s="37">
+        <v>0</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="71"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="16">
         <v>-6</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40">
+      <c r="B4" s="25"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37">
         <f>E3-F4</f>
         <v>19000</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="37">
         <v>1000</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="74"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="71"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="16">
         <v>-5</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40">
+      <c r="B5" s="25"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37">
         <f>E4-F5</f>
         <v>18000</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="37">
         <v>1000</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="74"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="71"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="16">
         <v>-4</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40">
+      <c r="B6" s="25"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37">
         <f>E5-F6</f>
         <v>17000</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="37">
         <v>1000</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="74"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="71"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="16">
         <v>-3</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40">
+      <c r="B7" s="25"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37">
         <f>E6-F7</f>
         <v>16000</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="37">
         <v>1000</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="74"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="71"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="16">
         <v>-2</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40">
+      <c r="B8" s="25"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37">
         <f>E7-F8</f>
         <v>15000</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="37">
         <v>1000</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="74"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="71"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="16">
         <v>-1</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40">
+      <c r="B9" s="25"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37">
         <f>E8-F9</f>
         <v>14000</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="37">
         <v>1000</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="74"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="71"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
-        <v>0</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32">
+      <c r="A10" s="17">
+        <v>0</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29">
         <f>E9-F10</f>
         <v>13000</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="29">
         <v>1000</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="40">
         <v>11000</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33">
+      <c r="H10" s="28"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30">
         <v>25000</v>
       </c>
-      <c r="L10" s="33">
-        <v>0</v>
-      </c>
-      <c r="M10" s="54"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="76"/>
-      <c r="AA10" s="87" t="s">
+      <c r="L10" s="30">
+        <v>0</v>
+      </c>
+      <c r="M10" s="51"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="73"/>
+      <c r="AA10" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AB10" s="87"/>
+      <c r="AB10" s="84"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="16">
         <v>1</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45">
+      <c r="B11" s="25"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42">
         <f>E10-F11</f>
         <v>12000</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="42">
         <v>1000</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56">
+      <c r="G11" s="43"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53">
         <f>K10-L11</f>
         <v>22500</v>
       </c>
-      <c r="L11" s="56">
+      <c r="L11" s="53">
         <v>2500</v>
       </c>
-      <c r="M11" s="57"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="67">
+      <c r="M11" s="54"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="64">
         <v>-3000</v>
       </c>
-      <c r="Q11" s="67">
+      <c r="Q11" s="64">
         <f t="shared" ref="Q11:Q20" si="0">K11-E11</f>
         <v>10500</v>
       </c>
-      <c r="R11" s="67">
+      <c r="R11" s="64">
         <f t="shared" ref="R11:R20" si="1">L11-F11</f>
         <v>1500</v>
       </c>
-      <c r="S11" s="68"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="81">
+      <c r="S11" s="65"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="78">
         <f>(O11-P11-R11)*(1-TaxR)+R11</f>
         <v>2550</v>
       </c>
-      <c r="V11" s="77">
+      <c r="V11" s="74">
         <f>U11/(1+CostCapR)^A11</f>
         <v>2276.7857142857142</v>
       </c>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="78"/>
-      <c r="AA11" s="22" t="s">
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="75"/>
+      <c r="AA11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AB11" s="84">
+      <c r="AB11" s="81">
         <v>25000</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="16">
         <v>2</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45">
+      <c r="B12" s="25"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42">
         <f>E11-F12</f>
         <v>11000</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="42">
         <v>1000</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56">
+      <c r="G12" s="43"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53">
         <f t="shared" ref="K12:K20" si="2">K11-L12</f>
         <v>20000</v>
       </c>
-      <c r="L12" s="56">
+      <c r="L12" s="53">
         <v>2500</v>
       </c>
-      <c r="M12" s="57"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="67">
+      <c r="M12" s="54"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="64">
         <v>-3000</v>
       </c>
-      <c r="Q12" s="67">
+      <c r="Q12" s="64">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="R12" s="67">
+      <c r="R12" s="64">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S12" s="68"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="81">
+      <c r="S12" s="65"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="78">
         <f>(O12-P12-R12)*(1-TaxR)+R12</f>
         <v>2550</v>
       </c>
-      <c r="V12" s="77">
+      <c r="V12" s="74">
         <f>U12/(1+CostCapR)^A12</f>
         <v>2032.8443877551017</v>
       </c>
-      <c r="W12" s="77"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="78"/>
-      <c r="AA12" s="22" t="s">
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="75"/>
+      <c r="AA12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AB12" s="84">
+      <c r="AB12" s="81">
         <v>5000</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="16">
         <v>3</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45">
+      <c r="B13" s="25"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42">
         <f>E12-F13</f>
         <v>10000</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="42">
         <v>1000</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56">
+      <c r="G13" s="43"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53">
         <f t="shared" si="2"/>
         <v>17500</v>
       </c>
-      <c r="L13" s="56">
+      <c r="L13" s="53">
         <v>2500</v>
       </c>
-      <c r="M13" s="57"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="67">
+      <c r="M13" s="54"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="64">
         <v>-3000</v>
       </c>
-      <c r="Q13" s="67">
+      <c r="Q13" s="64">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="R13" s="67">
+      <c r="R13" s="64">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S13" s="68"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="81">
+      <c r="S13" s="65"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="78">
         <f>(O13-P13-R13)*(1-TaxR)+R13</f>
         <v>2550</v>
       </c>
-      <c r="V13" s="77">
+      <c r="V13" s="74">
         <f>U13/(1+CostCapR)^A13</f>
         <v>1815.0396319241977</v>
       </c>
-      <c r="W13" s="77"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="78"/>
-      <c r="AA13" s="23" t="s">
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="75"/>
+      <c r="AA13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AB13" s="85">
+      <c r="AB13" s="82">
         <f>G10-TaxR*(G10-E10)</f>
         <v>11600</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="16">
         <v>4</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45">
+      <c r="B14" s="25"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42">
         <f>E13-F14</f>
         <v>9000</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="42">
         <v>1000</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56">
+      <c r="G14" s="43"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53">
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
-      <c r="L14" s="56">
+      <c r="L14" s="53">
         <v>2500</v>
       </c>
-      <c r="M14" s="57"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="67">
+      <c r="M14" s="54"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="64">
         <v>-3000</v>
       </c>
-      <c r="Q14" s="67">
+      <c r="Q14" s="64">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="R14" s="67">
+      <c r="R14" s="64">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S14" s="68"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="81">
+      <c r="S14" s="65"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="78">
         <f>(O14-P14-R14)*(1-TaxR)+R14</f>
         <v>2550</v>
       </c>
-      <c r="V14" s="77">
+      <c r="V14" s="74">
         <f>U14/(1+CostCapR)^A14</f>
         <v>1620.5710999323194</v>
       </c>
-      <c r="W14" s="77"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="78"/>
-      <c r="AA14" s="21" t="s">
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="75"/>
+      <c r="AA14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AB14" s="86">
+      <c r="AB14" s="83">
         <f>FCInv+NWCInv-AB13</f>
         <v>18400</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="16">
         <v>5</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45">
+      <c r="B15" s="25"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42">
         <f>E14-F15</f>
         <v>8000</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="42">
         <v>1000</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56">
+      <c r="G15" s="43"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53">
         <f t="shared" si="2"/>
         <v>12500</v>
       </c>
-      <c r="L15" s="56">
+      <c r="L15" s="53">
         <v>2500</v>
       </c>
-      <c r="M15" s="57"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="67">
+      <c r="M15" s="54"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="64">
         <v>-3000</v>
       </c>
-      <c r="Q15" s="67">
+      <c r="Q15" s="64">
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="R15" s="67">
+      <c r="R15" s="64">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S15" s="68"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="81">
+      <c r="S15" s="65"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="78">
         <f>(O15-P15-R15)*(1-TaxR)+R15</f>
         <v>2550</v>
       </c>
-      <c r="V15" s="77">
+      <c r="V15" s="74">
         <f>U15/(1+CostCapR)^A15</f>
         <v>1446.938482082428</v>
       </c>
-      <c r="W15" s="77"/>
-      <c r="X15" s="77"/>
-      <c r="Y15" s="78"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="75"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="16">
         <v>6</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45">
+      <c r="B16" s="25"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42">
         <f>E15-F16</f>
         <v>7000</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="42">
         <v>1000</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56">
+      <c r="G16" s="43"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53">
         <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="L16" s="56">
+      <c r="L16" s="53">
         <v>2500</v>
       </c>
-      <c r="M16" s="57"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="67">
+      <c r="M16" s="54"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="64">
         <v>-3000</v>
       </c>
-      <c r="Q16" s="67">
+      <c r="Q16" s="64">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="R16" s="67">
+      <c r="R16" s="64">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S16" s="68"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="81">
+      <c r="S16" s="65"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="78">
         <f>(O16-P16-R16)*(1-TaxR)+R16</f>
         <v>2550</v>
       </c>
-      <c r="V16" s="77">
+      <c r="V16" s="74">
         <f>U16/(1+CostCapR)^A16</f>
         <v>1291.9093590021678</v>
       </c>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="78"/>
-      <c r="AA16" s="24" t="s">
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="75"/>
+      <c r="AA16" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AB16" s="24">
+      <c r="AB16" s="21">
         <v>0.12</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="16">
         <v>7</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45">
+      <c r="B17" s="25"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42">
         <f>E16-F17</f>
         <v>6000</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="42">
         <v>1000</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56">
+      <c r="G17" s="43"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53">
         <f t="shared" si="2"/>
         <v>7500</v>
       </c>
-      <c r="L17" s="56">
+      <c r="L17" s="53">
         <v>2500</v>
       </c>
-      <c r="M17" s="57"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="67">
+      <c r="M17" s="54"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="64">
         <v>-3000</v>
       </c>
-      <c r="Q17" s="67">
+      <c r="Q17" s="64">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="R17" s="67">
+      <c r="R17" s="64">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S17" s="68"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="81">
+      <c r="S17" s="65"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="78">
         <f>(O17-P17-R17)*(1-TaxR)+R17</f>
         <v>2550</v>
       </c>
-      <c r="V17" s="77">
+      <c r="V17" s="74">
         <f>U17/(1+CostCapR)^A17</f>
         <v>1153.4904991090782</v>
       </c>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="78"/>
-      <c r="AA17" s="24" t="s">
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="75"/>
+      <c r="AA17" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AB17" s="24">
+      <c r="AB17" s="21">
         <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="16">
         <v>8</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45">
+      <c r="B18" s="25"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42">
         <f>E17-F18</f>
         <v>5000</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="42">
         <v>1000</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56">
+      <c r="G18" s="43"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="L18" s="56">
+      <c r="L18" s="53">
         <v>2500</v>
       </c>
-      <c r="M18" s="57"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="67">
+      <c r="M18" s="54"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="64">
         <v>-3000</v>
       </c>
-      <c r="Q18" s="67">
+      <c r="Q18" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R18" s="67">
+      <c r="R18" s="64">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S18" s="68"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="81">
+      <c r="S18" s="65"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="78">
         <f>(O18-P18-R18)*(1-TaxR)+R18</f>
         <v>2550</v>
       </c>
-      <c r="V18" s="77">
+      <c r="V18" s="74">
         <f>U18/(1+CostCapR)^A18</f>
         <v>1029.9022313473913</v>
       </c>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="78"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="75"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="A19" s="16">
         <v>9</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45">
+      <c r="B19" s="25"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42">
         <f>E18-F19</f>
         <v>4000</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="42">
         <v>1000</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56">
+      <c r="G19" s="43"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53">
         <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="L19" s="56">
+      <c r="L19" s="53">
         <v>2500</v>
       </c>
-      <c r="M19" s="57"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="67">
+      <c r="M19" s="54"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="64">
         <v>-3000</v>
       </c>
-      <c r="Q19" s="67">
+      <c r="Q19" s="64">
         <f t="shared" si="0"/>
         <v>-1500</v>
       </c>
-      <c r="R19" s="67">
+      <c r="R19" s="64">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S19" s="68"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="81">
+      <c r="S19" s="65"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="78">
         <f>(O19-P19-R19)*(1-TaxR)+R19</f>
         <v>2550</v>
       </c>
-      <c r="V19" s="77">
+      <c r="V19" s="74">
         <f>U19/(1+CostCapR)^A19</f>
         <v>919.55556370302793</v>
       </c>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="78"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="74"/>
+      <c r="Y19" s="75"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="A20" s="16">
         <v>10</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48">
+      <c r="B20" s="25"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45">
         <f>E19-F20</f>
         <v>3000</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="45">
         <v>1000</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="46">
         <v>1200</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59">
+      <c r="H20" s="27"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L20" s="59">
+      <c r="L20" s="56">
         <v>2500</v>
       </c>
-      <c r="M20" s="60">
+      <c r="M20" s="57">
         <v>1000</v>
       </c>
-      <c r="N20" s="30"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="70">
+      <c r="N20" s="27"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="67">
         <v>-3000</v>
       </c>
-      <c r="Q20" s="70">
+      <c r="Q20" s="67">
         <f t="shared" si="0"/>
         <v>-3000</v>
       </c>
-      <c r="R20" s="70">
+      <c r="R20" s="67">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S20" s="71">
+      <c r="S20" s="68">
         <f>M20-G20</f>
         <v>-200</v>
       </c>
-      <c r="T20" s="30"/>
-      <c r="U20" s="82">
+      <c r="T20" s="27"/>
+      <c r="U20" s="79">
         <f>(O20-P20-R20)*(1-TaxR)+R20</f>
         <v>2550</v>
       </c>
-      <c r="V20" s="79">
+      <c r="V20" s="76">
         <f>U20/(1+CostCapR)^A20</f>
         <v>821.03175330627482</v>
       </c>
-      <c r="W20" s="83">
+      <c r="W20" s="80">
         <f>AB12+S20-Tax*(S20-Q20)</f>
         <v>3960</v>
       </c>
-      <c r="X20" s="79">
+      <c r="X20" s="76">
         <f>W20/(1+CostCap)^A20</f>
         <v>1275.0140168991561</v>
       </c>
-      <c r="Y20" s="80">
+      <c r="Y20" s="77">
         <f>-OutlayR+SUM(V11:V20)+W20</f>
         <v>-31.931277552299434</v>
       </c>

--- a/VEE_Finance_5.3_CF_Projections.xlsx
+++ b/VEE_Finance_5.3_CF_Projections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8114D8B-F60B-41DB-8060-F0CE1B315CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DDB7ED-6774-4B35-A8FD-CF798194189C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8DE7A01D-40B8-4BAB-9790-8CDC864FC297}"/>
   </bookViews>
@@ -18,13 +18,13 @@
   </sheets>
   <definedNames>
     <definedName name="CostCap">'Expansion Project'!$K$18</definedName>
-    <definedName name="CostCapR">'Replacement Project'!$AB$16</definedName>
+    <definedName name="CostCapR">'Replacement Project'!$R$29</definedName>
     <definedName name="FCInv">'Expansion Project'!$K$14</definedName>
     <definedName name="NWCInv">'Expansion Project'!$K$15</definedName>
     <definedName name="Outlay">'Expansion Project'!$K$16</definedName>
-    <definedName name="OutlayR">'Replacement Project'!$AB$14</definedName>
+    <definedName name="OutlayR">'Replacement Project'!$S$27</definedName>
     <definedName name="Tax">'Expansion Project'!$K$19</definedName>
-    <definedName name="TaxR">'Replacement Project'!$AB$17</definedName>
+    <definedName name="TaxR">'Replacement Project'!$R$30</definedName>
     <definedName name="TNOCF">'Expansion Project'!$I$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Time</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>Salvage Inlay</t>
+  </si>
+  <si>
+    <t>Cost Capital</t>
   </si>
 </sst>
 </file>
@@ -763,7 +766,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -999,6 +1002,8 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="16" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -1372,9 +1377,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>151636</xdr:colOff>
+      <xdr:colOff>370711</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>37595</xdr:rowOff>
+      <xdr:rowOff>28070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1416,7 +1421,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>246933</xdr:colOff>
+      <xdr:colOff>475533</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>18167</xdr:rowOff>
     </xdr:to>
@@ -2349,7 +2354,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CFEA2D-6633-4271-B81D-687225DDDC2A}">
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2359,24 +2364,32 @@
     <col min="2" max="2" width="3.7109375" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.7109375" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.7109375" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="10.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.7109375" customWidth="1"/>
-    <col min="21" max="23" width="8.7109375" customWidth="1"/>
-    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C1" s="22" t="s">
         <v>23</v>
       </c>
@@ -2399,7 +2412,7 @@
       <c r="R1" s="22"/>
       <c r="S1" s="22"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -2468,7 +2481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>-7</v>
       </c>
@@ -2501,7 +2514,7 @@
       <c r="X3" s="70"/>
       <c r="Y3" s="71"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>-6</v>
       </c>
@@ -2535,7 +2548,7 @@
       <c r="X4" s="70"/>
       <c r="Y4" s="71"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>-5</v>
       </c>
@@ -2569,7 +2582,7 @@
       <c r="X5" s="70"/>
       <c r="Y5" s="71"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>-4</v>
       </c>
@@ -2603,7 +2616,7 @@
       <c r="X6" s="70"/>
       <c r="Y6" s="71"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>-3</v>
       </c>
@@ -2637,7 +2650,7 @@
       <c r="X7" s="70"/>
       <c r="Y7" s="71"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>-2</v>
       </c>
@@ -2671,7 +2684,7 @@
       <c r="X8" s="70"/>
       <c r="Y8" s="71"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>-1</v>
       </c>
@@ -2705,7 +2718,7 @@
       <c r="X9" s="70"/>
       <c r="Y9" s="71"/>
     </row>
-    <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>0</v>
       </c>
@@ -2744,12 +2757,8 @@
       <c r="W10" s="32"/>
       <c r="X10" s="32"/>
       <c r="Y10" s="73"/>
-      <c r="AA10" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB10" s="84"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>1</v>
       </c>
@@ -2801,14 +2810,8 @@
       <c r="W11" s="74"/>
       <c r="X11" s="74"/>
       <c r="Y11" s="75"/>
-      <c r="AA11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB11" s="81">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>2</v>
       </c>
@@ -2860,14 +2863,8 @@
       <c r="W12" s="74"/>
       <c r="X12" s="74"/>
       <c r="Y12" s="75"/>
-      <c r="AA12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB12" s="81">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>3</v>
       </c>
@@ -2919,15 +2916,8 @@
       <c r="W13" s="74"/>
       <c r="X13" s="74"/>
       <c r="Y13" s="75"/>
-      <c r="AA13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB13" s="82">
-        <f>G10-TaxR*(G10-E10)</f>
-        <v>11600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>4</v>
       </c>
@@ -2979,15 +2969,8 @@
       <c r="W14" s="74"/>
       <c r="X14" s="74"/>
       <c r="Y14" s="75"/>
-      <c r="AA14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB14" s="83">
-        <f>FCInv+NWCInv-AB13</f>
-        <v>18400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>5</v>
       </c>
@@ -3040,7 +3023,7 @@
       <c r="X15" s="74"/>
       <c r="Y15" s="75"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>6</v>
       </c>
@@ -3092,14 +3075,8 @@
       <c r="W16" s="74"/>
       <c r="X16" s="74"/>
       <c r="Y16" s="75"/>
-      <c r="AA16" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB16" s="21">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>7</v>
       </c>
@@ -3151,14 +3128,8 @@
       <c r="W17" s="74"/>
       <c r="X17" s="74"/>
       <c r="Y17" s="75"/>
-      <c r="AA17" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB17" s="21">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>8</v>
       </c>
@@ -3211,7 +3182,7 @@
       <c r="X18" s="74"/>
       <c r="Y18" s="75"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>9</v>
       </c>
@@ -3264,7 +3235,7 @@
       <c r="X19" s="74"/>
       <c r="Y19" s="75"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>10</v>
       </c>
@@ -3321,7 +3292,7 @@
         <v>821.03175330627482</v>
       </c>
       <c r="W20" s="80">
-        <f>AB12+S20-Tax*(S20-Q20)</f>
+        <f>S25+S20-Tax*(S20-Q20)</f>
         <v>3960</v>
       </c>
       <c r="X20" s="76">
@@ -3331,6 +3302,66 @@
       <c r="Y20" s="77">
         <f>-OutlayR+SUM(V11:V20)+W20</f>
         <v>-31.931277552299434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q23" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="84"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" s="81"/>
+      <c r="S25" s="81">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82">
+        <f>$G$10-TaxR*($G$10-$E$10)</f>
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q27" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="R27" s="83"/>
+      <c r="S27" s="93">
+        <f>FCInv+NWCInv-S26</f>
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q29" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="R29" s="94">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q30" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="R30" s="94">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -3338,7 +3369,7 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="O1:S1"/>
-    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="Q23:R23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VEE_Finance_5.3_CF_Projections.xlsx
+++ b/VEE_Finance_5.3_CF_Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DDB7ED-6774-4B35-A8FD-CF798194189C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FE4ACB-BC4D-4B95-8848-F0D3249234F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8DE7A01D-40B8-4BAB-9790-8CDC864FC297}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8DE7A01D-40B8-4BAB-9790-8CDC864FC297}"/>
   </bookViews>
   <sheets>
     <sheet name="Expansion Project" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <definedNames>
     <definedName name="CostCap">'Expansion Project'!$K$18</definedName>
-    <definedName name="CostCapR">'Replacement Project'!$R$29</definedName>
+    <definedName name="CostCapR">'Replacement Project'!$R$28</definedName>
     <definedName name="FCInv">'Expansion Project'!$K$14</definedName>
     <definedName name="NWCInv">'Expansion Project'!$K$15</definedName>
     <definedName name="Outlay">'Expansion Project'!$K$16</definedName>
-    <definedName name="OutlayR">'Replacement Project'!$S$27</definedName>
+    <definedName name="OutlayR">'Replacement Project'!$S$26</definedName>
     <definedName name="Tax">'Expansion Project'!$K$19</definedName>
-    <definedName name="TaxR">'Replacement Project'!$R$30</definedName>
+    <definedName name="TaxR">'Replacement Project'!$R$29</definedName>
     <definedName name="TNOCF">'Expansion Project'!$I$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1371,15 +1371,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>370711</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>28070</xdr:rowOff>
+      <xdr:colOff>389761</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66170</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1402,7 +1402,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="914400" y="4210050"/>
+          <a:off x="933450" y="2714625"/>
           <a:ext cx="6114286" cy="4038095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1786,7 +1786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49E9265-8E8F-4357-81FE-06DB2419F748}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2354,9 +2354,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CFEA2D-6633-4271-B81D-687225DDDC2A}">
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3292,7 +3292,7 @@
         <v>821.03175330627482</v>
       </c>
       <c r="W20" s="80">
-        <f>S25+S20-Tax*(S20-Q20)</f>
+        <f>S24+S20-Tax*(S20-Q20)</f>
         <v>3960</v>
       </c>
       <c r="X20" s="76">
@@ -3304,63 +3304,64 @@
         <v>-31.931277552299434</v>
       </c>
     </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q22" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+    </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Q23" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="R23" s="84"/>
+      <c r="Q23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81">
+        <v>25000</v>
+      </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q24" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R24" s="81"/>
       <c r="S24" s="81">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Q25" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="R25" s="81"/>
-      <c r="S25" s="81">
         <v>5000</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q26" s="20" t="s">
+    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82">
+      <c r="R25" s="82"/>
+      <c r="S25" s="82">
         <f>$G$10-TaxR*($G$10-$E$10)</f>
         <v>11600</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Q27" s="18" t="s">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="R27" s="83"/>
-      <c r="S27" s="93">
-        <f>FCInv+NWCInv-S26</f>
+      <c r="R26" s="83"/>
+      <c r="S26" s="93">
+        <f>FCInv+NWCInv-S25</f>
         <v>18400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q28" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="R28" s="94">
+        <v>0.12</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q29" s="21" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="R29" s="94">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Q30" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="R30" s="94">
         <v>0.3</v>
       </c>
     </row>
@@ -3369,7 +3370,7 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="O1:S1"/>
-    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q22:S22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VEE_Finance_5.3_CF_Projections.xlsx
+++ b/VEE_Finance_5.3_CF_Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FE4ACB-BC4D-4B95-8848-F0D3249234F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C8F65E-7C55-4EF1-813C-90B187B73BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8DE7A01D-40B8-4BAB-9790-8CDC864FC297}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8DE7A01D-40B8-4BAB-9790-8CDC864FC297}"/>
   </bookViews>
   <sheets>
     <sheet name="Expansion Project" sheetId="1" r:id="rId1"/>
@@ -1786,7 +1786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49E9265-8E8F-4357-81FE-06DB2419F748}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2356,7 +2356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CFEA2D-6633-4271-B81D-687225DDDC2A}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/VEE_Finance_5.3_CF_Projections.xlsx
+++ b/VEE_Finance_5.3_CF_Projections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C8F65E-7C55-4EF1-813C-90B187B73BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF4951E-9FB8-463A-AFBA-0A0FA5ED2C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8DE7A01D-40B8-4BAB-9790-8CDC864FC297}"/>
   </bookViews>
@@ -118,7 +118,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Depreciation Charge</t>
+Depreciation Charge.
+Note: depreciation is a non-cash expense.</t>
         </r>
       </text>
     </comment>
@@ -355,15 +356,9 @@
     <t>NPV</t>
   </si>
   <si>
-    <t>CF</t>
-  </si>
-  <si>
     <t>TNOCF</t>
   </si>
   <si>
-    <t>TNOCF_TVM</t>
-  </si>
-  <si>
     <t>Time 0</t>
   </si>
   <si>
@@ -403,9 +398,6 @@
     <t>Δ Salvage</t>
   </si>
   <si>
-    <t>CF TVM</t>
-  </si>
-  <si>
     <t>FC Inv</t>
   </si>
   <si>
@@ -419,13 +411,42 @@
   </si>
   <si>
     <t>Cost Capital</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Δ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CF</t>
+    </r>
+  </si>
+  <si>
+    <t>Δ CF TVM</t>
+  </si>
+  <si>
+    <t>TNOCF TVM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +509,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -801,12 +829,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,12 +1003,8 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1004,6 +1022,16 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="16" xfId="6" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -1015,10 +1043,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1036,6 +1060,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1469,17 +1497,17 @@
     <tableColumn id="4" xr3:uid="{EEEDE136-EE68-4183-8B9E-A05E3D78162B}" name="Book Value" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{7B5F02B2-63CC-4FCB-A29D-B2881F98E03B}" name="Depreciation" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{E750BC76-8D0F-4BCD-AAA0-E701A8AD5A7E}" name="Salvage Value" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{1B127E0F-A653-4164-A90B-DD906A56438E}" name="Cash Flows" dataDxfId="4">
-      <calculatedColumnFormula>(B2-C2-E2)*(1-Tax)+E2</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{1B127E0F-A653-4164-A90B-DD906A56438E}" name="Cash Flows" dataDxfId="0">
+      <calculatedColumnFormula>(B2-C2)*(1-Tax)+E2*Tax</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8E7D0CAA-831C-4CAC-BF1B-983B1C8CFA66}" name="Cash Flows (TVM)" dataDxfId="3">
+    <tableColumn id="9" xr3:uid="{8E7D0CAA-831C-4CAC-BF1B-983B1C8CFA66}" name="Cash Flows (TVM)" dataDxfId="4">
       <calculatedColumnFormula>G2/(1+CostCap)^A2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1E889F3A-1A5E-4B1D-A90B-4355A91BF7AE}" name="Terminal Yr Non-Op CFs" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{24D14397-AC80-4D23-86E1-80D5E0F6A16B}" name="Terminal Yr Non-Op CFs (TVM)" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{1E889F3A-1A5E-4B1D-A90B-4355A91BF7AE}" name="Terminal Yr Non-Op CFs" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{24D14397-AC80-4D23-86E1-80D5E0F6A16B}" name="Terminal Yr Non-Op CFs (TVM)" dataDxfId="2">
       <calculatedColumnFormula>I2/(1+CostCap)^A2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{B3876A23-E96B-4799-B2C5-7933B440F5F3}" name="NPV" dataDxfId="0">
+    <tableColumn id="14" xr3:uid="{B3876A23-E96B-4799-B2C5-7933B440F5F3}" name="NPV" dataDxfId="1">
       <calculatedColumnFormula>-Outlay+SUM(H$2:H2)+SUM(J$2:J2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1861,18 +1889,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="14">
-        <f t="shared" ref="G2:G12" si="0">(B2-C2-E2)*(1-Tax)+E2</f>
+        <f>(B2-C2)*(1-Tax)+E2*Tax</f>
         <v>0</v>
       </c>
       <c r="H2" s="14">
-        <f t="shared" ref="H2:H12" si="1">G2/(1+CostCap)^A2</f>
+        <f t="shared" ref="H2:H12" si="0">G2/(1+CostCap)^A2</f>
         <v>0</v>
       </c>
       <c r="I2" s="14">
         <v>0</v>
       </c>
       <c r="J2" s="14">
-        <f t="shared" ref="J2:J12" si="2">I2/(1+CostCap)^A2</f>
+        <f t="shared" ref="J2:J12" si="1">I2/(1+CostCap)^A2</f>
         <v>0</v>
       </c>
       <c r="K2" s="15">
@@ -1900,19 +1928,19 @@
       <c r="F3" s="14">
         <v>0</v>
       </c>
-      <c r="G3" s="90">
+      <c r="G3" s="86">
+        <f>(B3-C3)*(1-Tax)+E3*Tax</f>
+        <v>2850.3</v>
+      </c>
+      <c r="H3" s="14">
         <f t="shared" si="0"/>
-        <v>2850.3</v>
-      </c>
-      <c r="H3" s="14">
+        <v>2544.9107142857142</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
         <f t="shared" si="1"/>
-        <v>2544.9107142857142</v>
-      </c>
-      <c r="I3" s="14">
-        <v>0</v>
-      </c>
-      <c r="J3" s="14">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K3" s="15">
@@ -1931,7 +1959,7 @@
         <v>1500</v>
       </c>
       <c r="D4" s="14">
-        <f t="shared" ref="D4:D12" si="3">MAX(D3-E4,0)</f>
+        <f t="shared" ref="D4:D12" si="2">MAX(D3-E4,0)</f>
         <v>15000</v>
       </c>
       <c r="E4" s="14">
@@ -1940,19 +1968,19 @@
       <c r="F4" s="14">
         <v>0</v>
       </c>
-      <c r="G4" s="91">
+      <c r="G4" s="87">
+        <f>(B4-C4)*(1-Tax)+E4*Tax</f>
+        <v>2850.3</v>
+      </c>
+      <c r="H4" s="14">
         <f t="shared" si="0"/>
-        <v>2850.3</v>
-      </c>
-      <c r="H4" s="14">
+        <v>2272.2417091836733</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
         <f t="shared" si="1"/>
-        <v>2272.2417091836733</v>
-      </c>
-      <c r="I4" s="14">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K4" s="15">
@@ -1971,7 +1999,7 @@
         <v>1500</v>
       </c>
       <c r="D5" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="E5" s="14">
@@ -1980,19 +2008,19 @@
       <c r="F5" s="14">
         <v>0</v>
       </c>
-      <c r="G5" s="91">
+      <c r="G5" s="87">
+        <f>(B5-C5)*(1-Tax)+E5*Tax</f>
+        <v>2850.3</v>
+      </c>
+      <c r="H5" s="14">
         <f t="shared" si="0"/>
-        <v>2850.3</v>
-      </c>
-      <c r="H5" s="14">
+        <v>2028.7872403425652</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
         <f t="shared" si="1"/>
-        <v>2028.7872403425652</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="15">
@@ -2011,7 +2039,7 @@
         <v>1500</v>
       </c>
       <c r="D6" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
       <c r="E6" s="14">
@@ -2020,19 +2048,19 @@
       <c r="F6" s="14">
         <v>0</v>
       </c>
-      <c r="G6" s="91">
+      <c r="G6" s="87">
+        <f>(B6-C6)*(1-Tax)+E6*Tax</f>
+        <v>2850.3</v>
+      </c>
+      <c r="H6" s="14">
         <f t="shared" si="0"/>
-        <v>2850.3</v>
-      </c>
-      <c r="H6" s="14">
+        <v>1811.4171788772903</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
         <f t="shared" si="1"/>
-        <v>1811.4171788772903</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="15">
@@ -2051,7 +2079,7 @@
         <v>1500</v>
       </c>
       <c r="D7" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E7" s="14">
@@ -2060,19 +2088,19 @@
       <c r="F7" s="14">
         <v>0</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="88">
+        <f>(B7-C7)*(1-Tax)+E7*Tax</f>
+        <v>2850.3</v>
+      </c>
+      <c r="H7" s="14">
         <f t="shared" si="0"/>
-        <v>2850.3</v>
-      </c>
-      <c r="H7" s="14">
+        <v>1617.3367668547235</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
         <f t="shared" si="1"/>
-        <v>1617.3367668547235</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="15">
@@ -2091,7 +2119,7 @@
         <v>1500</v>
       </c>
       <c r="D8" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E8" s="14">
@@ -2100,19 +2128,19 @@
       <c r="F8" s="14">
         <v>0</v>
       </c>
-      <c r="G8" s="90">
+      <c r="G8" s="86">
+        <f>(B8-C8)*(1-Tax)+E8*Tax</f>
+        <v>1350.3</v>
+      </c>
+      <c r="H8" s="14">
         <f t="shared" si="0"/>
-        <v>1350.3</v>
-      </c>
-      <c r="H8" s="14">
+        <v>684.10400292573604</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
         <f t="shared" si="1"/>
-        <v>684.10400292573604</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="15">
@@ -2131,7 +2159,7 @@
         <v>1500</v>
       </c>
       <c r="D9" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E9" s="14">
@@ -2140,19 +2168,19 @@
       <c r="F9" s="14">
         <v>0</v>
       </c>
-      <c r="G9" s="91">
+      <c r="G9" s="87">
+        <f>(B9-C9)*(1-Tax)+E9*Tax</f>
+        <v>1350.3</v>
+      </c>
+      <c r="H9" s="14">
         <f t="shared" si="0"/>
-        <v>1350.3</v>
-      </c>
-      <c r="H9" s="14">
+        <v>610.80714546940715</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
         <f t="shared" si="1"/>
-        <v>610.80714546940715</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="15">
@@ -2171,7 +2199,7 @@
         <v>1500</v>
       </c>
       <c r="D10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E10" s="14">
@@ -2180,19 +2208,19 @@
       <c r="F10" s="14">
         <v>0</v>
       </c>
-      <c r="G10" s="91">
+      <c r="G10" s="87">
+        <f>(B10-C10)*(1-Tax)+E10*Tax</f>
+        <v>1350.3</v>
+      </c>
+      <c r="H10" s="14">
         <f t="shared" si="0"/>
-        <v>1350.3</v>
-      </c>
-      <c r="H10" s="14">
+        <v>545.36352274054207</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
         <f t="shared" si="1"/>
-        <v>545.36352274054207</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="15">
@@ -2211,7 +2239,7 @@
         <v>1500</v>
       </c>
       <c r="D11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E11" s="14">
@@ -2220,19 +2248,19 @@
       <c r="F11" s="14">
         <v>0</v>
       </c>
-      <c r="G11" s="91">
+      <c r="G11" s="87">
+        <f>(B11-C11)*(1-Tax)+E11*Tax</f>
+        <v>1350.3</v>
+      </c>
+      <c r="H11" s="14">
         <f t="shared" si="0"/>
-        <v>1350.3</v>
-      </c>
-      <c r="H11" s="14">
+        <v>486.93171673262685</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
         <f t="shared" si="1"/>
-        <v>486.93171673262685</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="15">
@@ -2251,7 +2279,7 @@
         <v>1500</v>
       </c>
       <c r="D12" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E12" s="14">
@@ -2260,23 +2288,23 @@
       <c r="F12" s="14">
         <v>1000</v>
       </c>
-      <c r="G12" s="92">
+      <c r="G12" s="88">
+        <f>(B12-C12)*(1-Tax)+E12*Tax</f>
+        <v>1350.3</v>
+      </c>
+      <c r="H12" s="14">
         <f t="shared" si="0"/>
-        <v>1350.3</v>
-      </c>
-      <c r="H12" s="14">
-        <f t="shared" si="1"/>
         <v>434.76046136841683</v>
       </c>
-      <c r="I12" s="88">
+      <c r="I12" s="84">
         <f>NWCInv+F12-Tax*(F12-D12)</f>
         <v>5700</v>
       </c>
       <c r="J12" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1835.2474485669673</v>
       </c>
-      <c r="K12" s="89">
+      <c r="K12" s="85">
         <f>-Outlay+SUM(H$2:H12)+SUM(J$2:J12)</f>
         <v>-15128.092092652339</v>
       </c>
@@ -2300,7 +2328,7 @@
       <c r="J14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="85">
+      <c r="K14" s="82">
         <v>25000</v>
       </c>
     </row>
@@ -2308,7 +2336,7 @@
       <c r="J15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="86">
+      <c r="K15" s="83">
         <v>5000</v>
       </c>
     </row>
@@ -2316,7 +2344,7 @@
       <c r="J16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="87">
+      <c r="K16" s="94">
         <f>FCInv+NWCInv</f>
         <v>30000</v>
       </c>
@@ -2381,103 +2409,103 @@
     <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.7109375" customWidth="1"/>
     <col min="21" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="I1" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="O1" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="I1" s="22" t="s">
+      <c r="P1" s="92"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="O1" s="23" t="s">
+      <c r="F2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="16"/>
+      <c r="O2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="34" t="s">
+      <c r="P2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="33" t="s">
+      <c r="Q2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="R2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="S2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>31</v>
-      </c>
       <c r="T2" s="16"/>
-      <c r="U2" s="33" t="s">
+      <c r="U2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="33" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2485,875 +2513,875 @@
       <c r="A3" s="16">
         <v>-7</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37">
+      <c r="B3" s="23"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35">
         <v>20000</v>
       </c>
-      <c r="F3" s="37">
-        <v>0</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="71"/>
+      <c r="F3" s="35">
+        <v>0</v>
+      </c>
+      <c r="G3" s="36"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="69"/>
     </row>
     <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>-6</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37">
-        <f>E3-F4</f>
+      <c r="B4" s="23"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35">
+        <f t="shared" ref="E4:E20" si="0">E3-F4</f>
         <v>19000</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="35">
         <v>1000</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="71"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="69"/>
     </row>
     <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>-5</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37">
-        <f>E4-F5</f>
+      <c r="B5" s="23"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35">
+        <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="35">
         <v>1000</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="71"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="69"/>
     </row>
     <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>-4</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37">
-        <f>E5-F6</f>
+      <c r="B6" s="23"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35">
+        <f t="shared" si="0"/>
         <v>17000</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="35">
         <v>1000</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="71"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="69"/>
     </row>
     <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>-3</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37">
-        <f>E6-F7</f>
+      <c r="B7" s="23"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35">
+        <f t="shared" si="0"/>
         <v>16000</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="35">
         <v>1000</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="71"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="69"/>
     </row>
     <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>-2</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37">
-        <f>E7-F8</f>
+      <c r="B8" s="23"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35">
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="35">
         <v>1000</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="71"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="69"/>
     </row>
     <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>-1</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37">
-        <f>E8-F9</f>
+      <c r="B9" s="23"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35">
+        <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="35">
         <v>1000</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="71"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="69"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>0</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29">
-        <f>E9-F10</f>
+      <c r="B10" s="24"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27">
+        <f t="shared" si="0"/>
         <v>13000</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="27">
         <v>1000</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="38">
         <v>11000</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30">
+      <c r="H10" s="26"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28">
         <v>25000</v>
       </c>
-      <c r="L10" s="30">
-        <v>0</v>
-      </c>
-      <c r="M10" s="51"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="73"/>
+      <c r="L10" s="28">
+        <v>0</v>
+      </c>
+      <c r="M10" s="49"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="71"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>1</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42">
-        <f>E10-F11</f>
+      <c r="B11" s="23"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40">
+        <f t="shared" si="0"/>
         <v>12000</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="40">
         <v>1000</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53">
+      <c r="G11" s="41"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51">
         <f>K10-L11</f>
         <v>22500</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="51">
         <v>2500</v>
       </c>
-      <c r="M11" s="54"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="64">
+      <c r="M11" s="52"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="62">
         <v>-3000</v>
       </c>
-      <c r="Q11" s="64">
-        <f t="shared" ref="Q11:Q20" si="0">K11-E11</f>
+      <c r="Q11" s="62">
+        <f t="shared" ref="Q11:Q20" si="1">K11-E11</f>
         <v>10500</v>
       </c>
-      <c r="R11" s="64">
-        <f t="shared" ref="R11:R20" si="1">L11-F11</f>
+      <c r="R11" s="62">
+        <f t="shared" ref="R11:R20" si="2">L11-F11</f>
         <v>1500</v>
       </c>
-      <c r="S11" s="65"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="78">
-        <f>(O11-P11-R11)*(1-TaxR)+R11</f>
+      <c r="S11" s="63"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="76">
+        <f t="shared" ref="U11:U20" si="3">(O11-P11-R11)*(1-TaxR)+R11</f>
         <v>2550</v>
       </c>
-      <c r="V11" s="74">
-        <f>U11/(1+CostCapR)^A11</f>
+      <c r="V11" s="72">
+        <f t="shared" ref="V11:V20" si="4">U11/(1+CostCapR)^A11</f>
         <v>2276.7857142857142</v>
       </c>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="75"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="73"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>2</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42">
-        <f>E11-F12</f>
+      <c r="B12" s="23"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40">
+        <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="40">
         <v>1000</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53">
-        <f t="shared" ref="K12:K20" si="2">K11-L12</f>
+      <c r="G12" s="41"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51">
+        <f t="shared" ref="K12:K20" si="5">K11-L12</f>
         <v>20000</v>
       </c>
-      <c r="L12" s="53">
+      <c r="L12" s="51">
         <v>2500</v>
       </c>
-      <c r="M12" s="54"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="64">
+      <c r="M12" s="52"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="62">
         <v>-3000</v>
       </c>
-      <c r="Q12" s="64">
-        <f t="shared" si="0"/>
+      <c r="Q12" s="62">
+        <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-      <c r="R12" s="64">
-        <f t="shared" si="1"/>
+      <c r="R12" s="62">
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="S12" s="65"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="78">
-        <f>(O12-P12-R12)*(1-TaxR)+R12</f>
+      <c r="S12" s="63"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="76">
+        <f t="shared" si="3"/>
         <v>2550</v>
       </c>
-      <c r="V12" s="74">
-        <f>U12/(1+CostCapR)^A12</f>
+      <c r="V12" s="72">
+        <f t="shared" si="4"/>
         <v>2032.8443877551017</v>
       </c>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="75"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="73"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>3</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42">
-        <f>E12-F13</f>
+      <c r="B13" s="23"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40">
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="40">
         <v>1000</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53">
+      <c r="G13" s="41"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51">
+        <f t="shared" si="5"/>
+        <v>17500</v>
+      </c>
+      <c r="L13" s="51">
+        <v>2500</v>
+      </c>
+      <c r="M13" s="52"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="62">
+        <v>-3000</v>
+      </c>
+      <c r="Q13" s="62">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="R13" s="62">
         <f t="shared" si="2"/>
-        <v>17500</v>
-      </c>
-      <c r="L13" s="53">
-        <v>2500</v>
-      </c>
-      <c r="M13" s="54"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="64">
-        <v>-3000</v>
-      </c>
-      <c r="Q13" s="64">
-        <f t="shared" si="0"/>
-        <v>7500</v>
-      </c>
-      <c r="R13" s="64">
-        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S13" s="65"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="78">
-        <f>(O13-P13-R13)*(1-TaxR)+R13</f>
+      <c r="S13" s="63"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="76">
+        <f t="shared" si="3"/>
         <v>2550</v>
       </c>
-      <c r="V13" s="74">
-        <f>U13/(1+CostCapR)^A13</f>
+      <c r="V13" s="72">
+        <f t="shared" si="4"/>
         <v>1815.0396319241977</v>
       </c>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="75"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="73"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>4</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42">
-        <f>E13-F14</f>
+      <c r="B14" s="23"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40">
+        <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="40">
         <v>1000</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53">
+      <c r="G14" s="41"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51">
+        <f t="shared" si="5"/>
+        <v>15000</v>
+      </c>
+      <c r="L14" s="51">
+        <v>2500</v>
+      </c>
+      <c r="M14" s="52"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="62">
+        <v>-3000</v>
+      </c>
+      <c r="Q14" s="62">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="R14" s="62">
         <f t="shared" si="2"/>
-        <v>15000</v>
-      </c>
-      <c r="L14" s="53">
-        <v>2500</v>
-      </c>
-      <c r="M14" s="54"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="64">
-        <v>-3000</v>
-      </c>
-      <c r="Q14" s="64">
-        <f t="shared" si="0"/>
-        <v>6000</v>
-      </c>
-      <c r="R14" s="64">
-        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S14" s="65"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="78">
-        <f>(O14-P14-R14)*(1-TaxR)+R14</f>
+      <c r="S14" s="63"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="76">
+        <f t="shared" si="3"/>
         <v>2550</v>
       </c>
-      <c r="V14" s="74">
-        <f>U14/(1+CostCapR)^A14</f>
+      <c r="V14" s="72">
+        <f t="shared" si="4"/>
         <v>1620.5710999323194</v>
       </c>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="75"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="73"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>5</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42">
-        <f>E14-F15</f>
+      <c r="B15" s="23"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40">
+        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="40">
         <v>1000</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53">
+      <c r="G15" s="41"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51">
+        <f t="shared" si="5"/>
+        <v>12500</v>
+      </c>
+      <c r="L15" s="51">
+        <v>2500</v>
+      </c>
+      <c r="M15" s="52"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="62">
+        <v>-3000</v>
+      </c>
+      <c r="Q15" s="62">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="R15" s="62">
         <f t="shared" si="2"/>
-        <v>12500</v>
-      </c>
-      <c r="L15" s="53">
-        <v>2500</v>
-      </c>
-      <c r="M15" s="54"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="64">
-        <v>-3000</v>
-      </c>
-      <c r="Q15" s="64">
-        <f t="shared" si="0"/>
-        <v>4500</v>
-      </c>
-      <c r="R15" s="64">
-        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S15" s="65"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="78">
-        <f>(O15-P15-R15)*(1-TaxR)+R15</f>
+      <c r="S15" s="63"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="76">
+        <f t="shared" si="3"/>
         <v>2550</v>
       </c>
-      <c r="V15" s="74">
-        <f>U15/(1+CostCapR)^A15</f>
+      <c r="V15" s="72">
+        <f t="shared" si="4"/>
         <v>1446.938482082428</v>
       </c>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="75"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="73"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>6</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42">
-        <f>E15-F16</f>
+      <c r="B16" s="23"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40">
+        <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="40">
         <v>1000</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53">
+      <c r="G16" s="41"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51">
+        <f t="shared" si="5"/>
+        <v>10000</v>
+      </c>
+      <c r="L16" s="51">
+        <v>2500</v>
+      </c>
+      <c r="M16" s="52"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="62">
+        <v>-3000</v>
+      </c>
+      <c r="Q16" s="62">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="R16" s="62">
         <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
-      <c r="L16" s="53">
-        <v>2500</v>
-      </c>
-      <c r="M16" s="54"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="64">
-        <v>-3000</v>
-      </c>
-      <c r="Q16" s="64">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="R16" s="64">
-        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S16" s="65"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="78">
-        <f>(O16-P16-R16)*(1-TaxR)+R16</f>
+      <c r="S16" s="63"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="76">
+        <f t="shared" si="3"/>
         <v>2550</v>
       </c>
-      <c r="V16" s="74">
-        <f>U16/(1+CostCapR)^A16</f>
+      <c r="V16" s="72">
+        <f t="shared" si="4"/>
         <v>1291.9093590021678</v>
       </c>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="75"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="73"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>7</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42">
-        <f>E16-F17</f>
+      <c r="B17" s="23"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40">
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="40">
         <v>1000</v>
       </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53">
-        <f t="shared" si="2"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51">
+        <f t="shared" si="5"/>
         <v>7500</v>
       </c>
-      <c r="L17" s="53">
+      <c r="L17" s="51">
         <v>2500</v>
       </c>
-      <c r="M17" s="54"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="64">
+      <c r="M17" s="52"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="62">
         <v>-3000</v>
       </c>
-      <c r="Q17" s="64">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="R17" s="64">
+      <c r="Q17" s="62">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S17" s="65"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="78">
-        <f>(O17-P17-R17)*(1-TaxR)+R17</f>
+      <c r="R17" s="62">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="S17" s="63"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="76">
+        <f t="shared" si="3"/>
         <v>2550</v>
       </c>
-      <c r="V17" s="74">
-        <f>U17/(1+CostCapR)^A17</f>
+      <c r="V17" s="72">
+        <f t="shared" si="4"/>
         <v>1153.4904991090782</v>
       </c>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="75"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="73"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>8</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42">
-        <f>E17-F18</f>
+      <c r="B18" s="23"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="40">
         <v>1000</v>
       </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53">
+      <c r="G18" s="41"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="L18" s="51">
+        <v>2500</v>
+      </c>
+      <c r="M18" s="52"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="62">
+        <v>-3000</v>
+      </c>
+      <c r="Q18" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="62">
         <f t="shared" si="2"/>
-        <v>5000</v>
-      </c>
-      <c r="L18" s="53">
-        <v>2500</v>
-      </c>
-      <c r="M18" s="54"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="64">
-        <v>-3000</v>
-      </c>
-      <c r="Q18" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="64">
-        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S18" s="65"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="78">
-        <f>(O18-P18-R18)*(1-TaxR)+R18</f>
+      <c r="S18" s="63"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="76">
+        <f t="shared" si="3"/>
         <v>2550</v>
       </c>
-      <c r="V18" s="74">
-        <f>U18/(1+CostCapR)^A18</f>
+      <c r="V18" s="72">
+        <f t="shared" si="4"/>
         <v>1029.9022313473913</v>
       </c>
-      <c r="W18" s="74"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="75"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="73"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>9</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42">
-        <f>E18-F19</f>
+      <c r="B19" s="23"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="40">
         <v>1000</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53">
+      <c r="G19" s="41"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51">
+        <f t="shared" si="5"/>
+        <v>2500</v>
+      </c>
+      <c r="L19" s="51">
+        <v>2500</v>
+      </c>
+      <c r="M19" s="52"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="62">
+        <v>-3000</v>
+      </c>
+      <c r="Q19" s="62">
+        <f t="shared" si="1"/>
+        <v>-1500</v>
+      </c>
+      <c r="R19" s="62">
         <f t="shared" si="2"/>
-        <v>2500</v>
-      </c>
-      <c r="L19" s="53">
-        <v>2500</v>
-      </c>
-      <c r="M19" s="54"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="64">
-        <v>-3000</v>
-      </c>
-      <c r="Q19" s="64">
-        <f t="shared" si="0"/>
-        <v>-1500</v>
-      </c>
-      <c r="R19" s="64">
-        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S19" s="65"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="78">
-        <f>(O19-P19-R19)*(1-TaxR)+R19</f>
+      <c r="S19" s="63"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="76">
+        <f t="shared" si="3"/>
         <v>2550</v>
       </c>
-      <c r="V19" s="74">
-        <f>U19/(1+CostCapR)^A19</f>
+      <c r="V19" s="72">
+        <f t="shared" si="4"/>
         <v>919.55556370302793</v>
       </c>
-      <c r="W19" s="74"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="75"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="73"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>10</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45">
-        <f>E19-F20</f>
+      <c r="B20" s="23"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43">
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="43">
         <v>1000</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="44">
         <v>1200</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56">
+      <c r="H20" s="25"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="54">
+        <v>2500</v>
+      </c>
+      <c r="M20" s="55">
+        <v>1000</v>
+      </c>
+      <c r="N20" s="25"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="65">
+        <v>-3000</v>
+      </c>
+      <c r="Q20" s="65">
+        <f t="shared" si="1"/>
+        <v>-3000</v>
+      </c>
+      <c r="R20" s="65">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="56">
-        <v>2500</v>
-      </c>
-      <c r="M20" s="57">
-        <v>1000</v>
-      </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="67">
-        <v>-3000</v>
-      </c>
-      <c r="Q20" s="67">
-        <f t="shared" si="0"/>
-        <v>-3000</v>
-      </c>
-      <c r="R20" s="67">
-        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="S20" s="68">
+      <c r="S20" s="66">
         <f>M20-G20</f>
         <v>-200</v>
       </c>
-      <c r="T20" s="27"/>
-      <c r="U20" s="79">
-        <f>(O20-P20-R20)*(1-TaxR)+R20</f>
+      <c r="T20" s="25"/>
+      <c r="U20" s="77">
+        <f t="shared" si="3"/>
         <v>2550</v>
       </c>
-      <c r="V20" s="76">
-        <f>U20/(1+CostCapR)^A20</f>
+      <c r="V20" s="74">
+        <f t="shared" si="4"/>
         <v>821.03175330627482</v>
       </c>
-      <c r="W20" s="80">
+      <c r="W20" s="78">
         <f>S24+S20-Tax*(S20-Q20)</f>
         <v>3960</v>
       </c>
-      <c r="X20" s="76">
+      <c r="X20" s="74">
         <f>W20/(1+CostCap)^A20</f>
         <v>1275.0140168991561</v>
       </c>
-      <c r="Y20" s="77">
+      <c r="Y20" s="75">
         <f>-OutlayR+SUM(V11:V20)+W20</f>
         <v>-31.931277552299434</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Q22" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
+      <c r="Q22" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q23" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81">
+        <v>30</v>
+      </c>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79">
         <v>25000</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q24" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81">
+        <v>31</v>
+      </c>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79">
         <v>5000</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q25" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82">
+        <v>33</v>
+      </c>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80">
         <f>$G$10-TaxR*($G$10-$E$10)</f>
         <v>11600</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q26" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="R26" s="83"/>
-      <c r="S26" s="93">
+        <v>32</v>
+      </c>
+      <c r="R26" s="81"/>
+      <c r="S26" s="89">
         <f>FCInv+NWCInv-S25</f>
         <v>18400</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q28" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="R28" s="94">
+        <v>34</v>
+      </c>
+      <c r="R28" s="90">
         <v>0.12</v>
       </c>
     </row>
@@ -3361,7 +3389,7 @@
       <c r="Q29" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="R29" s="94">
+      <c r="R29" s="90">
         <v>0.3</v>
       </c>
     </row>

--- a/VEE_Finance_5.3_CF_Projections.xlsx
+++ b/VEE_Finance_5.3_CF_Projections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF4951E-9FB8-463A-AFBA-0A0FA5ED2C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC55645C-24BC-4475-9B5B-081ABAD10566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8DE7A01D-40B8-4BAB-9790-8CDC864FC297}"/>
   </bookViews>
@@ -267,6 +267,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{F6844738-8C0B-42AE-A6E5-76C808FF11B6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>carlc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WACC: Weighted Average Cost of Capital</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -308,9 +332,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Fixed Capital Investment</t>
   </si>
   <si>
@@ -357,9 +378,6 @@
   </si>
   <si>
     <t>TNOCF</t>
-  </si>
-  <si>
-    <t>Time 0</t>
   </si>
   <si>
     <t>Costs</t>
@@ -440,6 +458,12 @@
   </si>
   <si>
     <t>TNOCF TVM</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>t = 0</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1515,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A90F998A-AEA4-4673-973A-6A9E0DE4DA68}" name="Table4" displayName="Table4" ref="A1:K12" totalsRowShown="0" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" headerRowCellStyle="Heading 3">
   <autoFilter ref="A1:K12" xr:uid="{A90F998A-AEA4-4673-973A-6A9E0DE4DA68}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{1346BB9A-528A-4DF1-ABC6-4511CAF56A23}" name="Time" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{1346BB9A-528A-4DF1-ABC6-4511CAF56A23}" name="Year" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{DB345524-E895-4208-9898-12594AC0A4AF}" name="Sales" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{CA0B6928-8F34-44C5-BE45-DC472897D173}" name="Expenses" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{EEEDE136-EE68-4183-8B9E-A05E3D78162B}" name="Book Value" dataDxfId="7"/>
@@ -1836,37 +1860,37 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2326,7 +2350,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J14" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="82">
         <v>25000</v>
@@ -2334,7 +2358,7 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J15" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" s="83">
         <v>5000</v>
@@ -2342,7 +2366,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J16" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K16" s="94">
         <f>FCInv+NWCInv</f>
@@ -2355,7 +2379,7 @@
     </row>
     <row r="18" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J18" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K18" s="8">
         <v>0.12</v>
@@ -2363,7 +2387,7 @@
     </row>
     <row r="19" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J19" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" s="10">
         <v>0.3</v>
@@ -2419,21 +2443,21 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C1" s="91" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="91"/>
       <c r="E1" s="91"/>
       <c r="F1" s="91"/>
       <c r="G1" s="91"/>
       <c r="I1" s="91" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J1" s="91"/>
       <c r="K1" s="91"/>
       <c r="L1" s="91"/>
       <c r="M1" s="91"/>
       <c r="O1" s="92" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P1" s="92"/>
       <c r="Q1" s="91"/>
@@ -2442,71 +2466,71 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="33" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>20</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="33" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>20</v>
       </c>
       <c r="N2" s="16"/>
       <c r="O2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="R2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="S2" s="33" t="s">
         <v>27</v>
-      </c>
-      <c r="R2" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>29</v>
       </c>
       <c r="T2" s="16"/>
       <c r="U2" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="X2" s="32" t="s">
-        <v>37</v>
-      </c>
       <c r="Y2" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
@@ -3334,14 +3358,14 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q22" s="93" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="R22" s="93"/>
       <c r="S22" s="93"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q23" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R23" s="79"/>
       <c r="S23" s="79">
@@ -3350,7 +3374,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q24" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R24" s="79"/>
       <c r="S24" s="79">
@@ -3359,7 +3383,7 @@
     </row>
     <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q25" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R25" s="80"/>
       <c r="S25" s="80">
@@ -3369,7 +3393,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q26" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R26" s="81"/>
       <c r="S26" s="89">
@@ -3379,7 +3403,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q28" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R28" s="90">
         <v>0.12</v>
@@ -3387,7 +3411,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q29" s="21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R29" s="90">
         <v>0.3</v>
